--- a/src/main/resources/M-T_F Matrisi.xlsx
+++ b/src/main/resources/M-T_F Matrisi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laptopwork\Doktora\Tez Savunma\Tez İçerik\Model Çalışma\Matriks_Listeler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3939F6E-BB67-4C57-B204-170BE9E412CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EDD94F-1525-425E-8812-B71507576CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="0" windowWidth="20700" windowHeight="21000" activeTab="1" xr2:uid="{AC06E057-9EE0-4AC9-889D-A81E10C62B95}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC06E057-9EE0-4AC9-889D-A81E10C62B95}"/>
   </bookViews>
   <sheets>
     <sheet name="M-T" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="68">
   <si>
     <t>X</t>
   </si>
@@ -241,6 +250,9 @@
   </si>
   <si>
     <t>Örgü-Döşeme Yapı</t>
+  </si>
+  <si>
+    <t>Mekanik İşleme NC</t>
   </si>
 </sst>
 </file>
@@ -1444,8 +1456,8 @@
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>820852</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>283988</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>798441</xdr:rowOff>
     </xdr:to>
@@ -1694,8 +1706,8 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>820853</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>93490</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>787235</xdr:rowOff>
     </xdr:to>
@@ -1744,8 +1756,8 @@
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>692912</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>52139</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>764823</xdr:rowOff>
     </xdr:to>
@@ -1794,8 +1806,8 @@
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>798441</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>105714</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>776029</xdr:rowOff>
     </xdr:to>
@@ -1844,8 +1856,8 @@
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>832058</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>243240</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>798441</xdr:rowOff>
     </xdr:to>
@@ -1894,8 +1906,8 @@
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>787235</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>111825</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>809647</xdr:rowOff>
     </xdr:to>
@@ -1944,8 +1956,8 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>776029</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>65984</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>787235</xdr:rowOff>
     </xdr:to>
@@ -1994,8 +2006,8 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>798441</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>174986</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>787235</xdr:rowOff>
     </xdr:to>
@@ -2094,8 +2106,8 @@
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>776029</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>83302</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>776029</xdr:rowOff>
     </xdr:to>
@@ -2190,7 +2202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4449,7 +4461,7 @@
   <dimension ref="B2:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4460,8 +4472,29 @@
     <col min="4" max="4" width="4.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="33" width="12.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.5703125" style="4" customWidth="1"/>
     <col min="35" max="35" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -4769,13 +4802,13 @@
       </c>
       <c r="AG6" s="5"/>
       <c r="AI6" s="7">
-        <f>COUNTIF(H6:AG6,"X")</f>
+        <f t="shared" ref="AI6:AI45" si="0">COUNTIF(H6:AG6,"X")</f>
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
-        <f t="shared" ref="B7:B47" si="0">ROW()-ROW($B$5)</f>
+        <f t="shared" ref="B7:B47" si="1">ROW()-ROW($B$5)</f>
         <v>2</v>
       </c>
       <c r="D7" s="5">
@@ -4839,13 +4872,13 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AI7" s="7">
-        <f>COUNTIF(H7:AG7,"X")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D8" s="5">
@@ -4909,13 +4942,13 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AI8" s="7">
-        <f>COUNTIF(H8:AG8,"X")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D9" s="5">
@@ -4928,7 +4961,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>0</v>
@@ -5009,13 +5042,13 @@
         <v>0</v>
       </c>
       <c r="AI9" s="7">
-        <f>COUNTIF(H9:AG9,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D10" s="5">
@@ -5091,13 +5124,13 @@
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
       <c r="AI10" s="7">
-        <f>COUNTIF(H10:AG10,"X")</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D11" s="5">
@@ -5110,7 +5143,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>0</v>
@@ -5191,13 +5224,13 @@
         <v>0</v>
       </c>
       <c r="AI11" s="7">
-        <f>COUNTIF(H11:AG11,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D12" s="5">
@@ -5283,13 +5316,13 @@
       </c>
       <c r="AG12" s="5"/>
       <c r="AI12" s="7">
-        <f>COUNTIF(H12:AG12,"X")</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D13" s="5">
@@ -5302,7 +5335,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>0</v>
@@ -5375,13 +5408,13 @@
       </c>
       <c r="AG13" s="5"/>
       <c r="AI13" s="7">
-        <f>COUNTIF(H13:AG13,"X")</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D14" s="5">
@@ -5469,13 +5502,13 @@
       </c>
       <c r="AG14" s="5"/>
       <c r="AI14" s="7">
-        <f>COUNTIF(H14:AG14,"X")</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D15" s="5">
@@ -5537,13 +5570,13 @@
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AI15" s="7">
-        <f>COUNTIF(H15:AG15,"X")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D16" s="5">
@@ -5603,13 +5636,13 @@
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AI16" s="7">
-        <f>COUNTIF(H16:AG16,"X")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D17" s="5">
@@ -5622,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>0</v>
@@ -5671,13 +5704,13 @@
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AI17" s="7">
-        <f>COUNTIF(H17:AG17,"X")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D18" s="5">
@@ -5735,13 +5768,13 @@
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
       <c r="AI18" s="7">
-        <f>COUNTIF(H18:AG18,"X")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D19" s="5">
@@ -5789,13 +5822,13 @@
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
       <c r="AI19" s="7">
-        <f>COUNTIF(H19:AG19,"X")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D20" s="5">
@@ -5855,13 +5888,13 @@
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
       <c r="AI20" s="7">
-        <f>COUNTIF(H20:AG20,"X")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D21" s="5">
@@ -5874,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>0</v>
@@ -5927,13 +5960,13 @@
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
       <c r="AI21" s="7">
-        <f>COUNTIF(H21:AG21,"X")</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="D22" s="5">
@@ -5991,13 +6024,13 @@
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
       <c r="AI22" s="7">
-        <f>COUNTIF(H22:AG22,"X")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D23" s="5">
@@ -6067,13 +6100,13 @@
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AI23" s="7">
-        <f>COUNTIF(H23:AG23,"X")</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D24" s="5">
@@ -6167,13 +6200,13 @@
         <v>0</v>
       </c>
       <c r="AI24" s="7">
-        <f>COUNTIF(H24:AG24,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="D25" s="5">
@@ -6257,13 +6290,13 @@
       </c>
       <c r="AG25" s="5"/>
       <c r="AI25" s="7">
-        <f>COUNTIF(H25:AG25,"X")</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D26" s="5">
@@ -6353,13 +6386,13 @@
       </c>
       <c r="AG26" s="5"/>
       <c r="AI26" s="7">
-        <f>COUNTIF(H26:AG26,"X")</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="D27" s="5">
@@ -6421,13 +6454,13 @@
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AI27" s="7">
-        <f>COUNTIF(H27:AG27,"X")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="D28" s="5">
@@ -6440,7 +6473,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>0</v>
@@ -6521,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="AI28" s="7">
-        <f>COUNTIF(H28:AG28,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D29" s="5">
@@ -6621,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="AI29" s="7">
-        <f>COUNTIF(H29:AG29,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D30" s="5">
@@ -6709,13 +6742,13 @@
       </c>
       <c r="AG30" s="5"/>
       <c r="AI30" s="7">
-        <f>COUNTIF(H30:AG30,"X")</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="D31" s="5">
@@ -6773,13 +6806,13 @@
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
       <c r="AI31" s="7">
-        <f>COUNTIF(H31:AG31,"X")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D32" s="5">
@@ -6792,7 +6825,7 @@
         <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>0</v>
@@ -6837,13 +6870,13 @@
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
       <c r="AI32" s="7">
-        <f>COUNTIF(H32:AG32,"X")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="D33" s="5">
@@ -6937,13 +6970,13 @@
         <v>0</v>
       </c>
       <c r="AI33" s="7">
-        <f>COUNTIF(H33:AG33,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="D34" s="5">
@@ -7027,13 +7060,13 @@
       </c>
       <c r="AG34" s="5"/>
       <c r="AI34" s="7">
-        <f>COUNTIF(H34:AG34,"X")</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D35" s="5">
@@ -7101,13 +7134,13 @@
       <c r="AF35" s="5"/>
       <c r="AG35" s="5"/>
       <c r="AI35" s="7">
-        <f>COUNTIF(H35:AG35,"X")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D36" s="5">
@@ -7193,13 +7226,13 @@
       </c>
       <c r="AG36" s="5"/>
       <c r="AI36" s="7">
-        <f>COUNTIF(H36:AG36,"X")</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D37" s="5">
@@ -7261,13 +7294,13 @@
       <c r="AF37" s="5"/>
       <c r="AG37" s="5"/>
       <c r="AI37" s="7">
-        <f>COUNTIF(H37:AG37,"X")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B38" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D38" s="5">
@@ -7280,7 +7313,7 @@
         <v>8</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>0</v>
@@ -7361,13 +7394,13 @@
         <v>0</v>
       </c>
       <c r="AI38" s="7">
-        <f>COUNTIF(H38:AG38,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B39" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D39" s="5">
@@ -7435,13 +7468,13 @@
       <c r="AF39" s="5"/>
       <c r="AG39" s="5"/>
       <c r="AI39" s="7">
-        <f>COUNTIF(H39:AG39,"X")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D40" s="5">
@@ -7509,13 +7542,13 @@
       <c r="AF40" s="5"/>
       <c r="AG40" s="5"/>
       <c r="AI40" s="7">
-        <f>COUNTIF(H40:AG40,"X")</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D41" s="5">
@@ -7609,13 +7642,13 @@
         <v>0</v>
       </c>
       <c r="AI41" s="7">
-        <f>COUNTIF(H41:AG41,"X")</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="D42" s="5">
@@ -7628,7 +7661,7 @@
         <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>0</v>
@@ -7699,13 +7732,13 @@
       </c>
       <c r="AG42" s="5"/>
       <c r="AI42" s="7">
-        <f>COUNTIF(H42:AG42,"X")</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D43" s="5">
@@ -7777,13 +7810,13 @@
         <v>0</v>
       </c>
       <c r="AI43" s="7">
-        <f>COUNTIF(H43:AG43,"X")</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D44" s="5">
@@ -7796,7 +7829,7 @@
         <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>0</v>
@@ -7841,13 +7874,13 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
       <c r="AI44" s="7">
-        <f>COUNTIF(H44:AG44,"X")</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="D45" s="5">
@@ -7907,13 +7940,13 @@
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
       <c r="AI45" s="7">
-        <f>COUNTIF(H45:AG45,"X")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D46" s="5">
@@ -7974,7 +8007,7 @@
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D47" s="5">
@@ -7987,7 +8020,7 @@
         <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>0</v>
@@ -8083,99 +8116,99 @@
         <v>42</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" ref="J49:AG49" si="1">COUNTIF(J6:J47,"X")</f>
+        <f t="shared" ref="J49:AG49" si="2">COUNTIF(J6:J47,"X")</f>
         <v>41</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="S49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="U49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="V49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="W49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="X49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="Y49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="Z49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AA49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AB49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="AC49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AD49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AE49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="AF49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="AG49" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="AI49" s="8">

--- a/src/main/resources/M-T_F Matrisi.xlsx
+++ b/src/main/resources/M-T_F Matrisi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\material\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EDD94F-1525-425E-8812-B71507576CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109E32AA-190D-4932-B64F-1C3C048C02FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC06E057-9EE0-4AC9-889D-A81E10C62B95}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="116">
   <si>
     <t>X</t>
   </si>
@@ -158,55 +158,12 @@
     <t>s</t>
   </si>
   <si>
-    <t>Paralel Ekstrüzyon
-Doğrusal</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>Form</t>
   </si>
   <si>
-    <t>Merkezi Ekstrüzyon
-Doğrusal</t>
-  </si>
-  <si>
-    <t>Merkezi Ekstrüzyon
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Merkezi Döner
-Doğrusal</t>
-  </si>
-  <si>
-    <t>Merkezi Döner
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Ötelenen Yüzeyler
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Çok kesit Çok yol
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Çok yüzlüler
-Merkezi simetri</t>
-  </si>
-  <si>
-    <t>Yüksek cins topoloji</t>
-  </si>
-  <si>
-    <t>Paralel Ekstrüzyon
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Tek kesit tek yol
-Eğrisel</t>
-  </si>
-  <si>
     <t>Damla</t>
   </si>
   <si>
@@ -222,9 +179,6 @@
     <t>Kayalaşma</t>
   </si>
   <si>
-    <t>Dağ Vadi</t>
-  </si>
-  <si>
     <t>Dentrit Büyüme</t>
   </si>
   <si>
@@ -243,13 +197,193 @@
     <t>Kabuk Boynuz</t>
   </si>
   <si>
-    <t>Deniz Organizmaları</t>
-  </si>
-  <si>
     <t>Gövde Kanatlar</t>
   </si>
   <si>
     <t>Örgü-Döşeme Yapı</t>
+  </si>
+  <si>
+    <t>Doğrusal Paralel Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Eğrisel Paralel Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Doğrusal Merkezi Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Eğrisel Merkezi Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Doğrusal Merkezi Döner</t>
+  </si>
+  <si>
+    <t>Eğrisel Merkezi Döner</t>
+  </si>
+  <si>
+    <t>Çok Yüzlü Merkezi Simetri</t>
+  </si>
+  <si>
+    <t>Eğrisel Tek Kesit Tek Yol</t>
+  </si>
+  <si>
+    <t>Eğrisel Çok Kesit Çok Yol</t>
+  </si>
+  <si>
+    <t>Eğrisel Ötelenen Yüzeyler</t>
+  </si>
+  <si>
+    <t>Yüksek Cins Topoloji</t>
+  </si>
+  <si>
+    <t>Topografya</t>
+  </si>
+  <si>
+    <t>Deniz Organizma</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
   </si>
   <si>
     <t>Mekanik İşleme NC</t>
@@ -259,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +416,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="162"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -340,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,6 +514,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,8 +1639,8 @@
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>283988</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>820852</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>798441</xdr:rowOff>
     </xdr:to>
@@ -1706,8 +1889,8 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>93490</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>820853</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>787235</xdr:rowOff>
     </xdr:to>
@@ -1756,8 +1939,8 @@
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>52139</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>692912</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>764823</xdr:rowOff>
     </xdr:to>
@@ -1806,8 +1989,8 @@
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>105714</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>798441</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>776029</xdr:rowOff>
     </xdr:to>
@@ -1856,8 +2039,8 @@
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>243240</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>832058</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>798441</xdr:rowOff>
     </xdr:to>
@@ -1906,8 +2089,8 @@
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>111825</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>787235</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>809647</xdr:rowOff>
     </xdr:to>
@@ -1956,8 +2139,8 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>65984</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>776029</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>787235</xdr:rowOff>
     </xdr:to>
@@ -2006,8 +2189,8 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>174986</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>798441</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>787235</xdr:rowOff>
     </xdr:to>
@@ -2106,8 +2289,8 @@
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>83302</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>776029</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>776029</xdr:rowOff>
     </xdr:to>
@@ -4460,8 +4643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C914C723-B307-4D6C-93AF-3FF0451A6A67}">
   <dimension ref="B2:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4472,29 +4655,8 @@
     <col min="4" max="4" width="4.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="33" width="12.7109375" style="4" customWidth="1"/>
     <col min="34" max="34" width="2.5703125" style="4" customWidth="1"/>
     <col min="35" max="35" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="4.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -4507,90 +4669,90 @@
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="G3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5">
-        <v>5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>6</v>
-      </c>
-      <c r="N3" s="5">
-        <v>7</v>
-      </c>
-      <c r="O3" s="5">
-        <v>8</v>
-      </c>
-      <c r="P3" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>10</v>
-      </c>
-      <c r="R3" s="5">
-        <v>11</v>
-      </c>
-      <c r="S3" s="5">
-        <v>12</v>
-      </c>
-      <c r="T3" s="5">
-        <v>13</v>
-      </c>
-      <c r="U3" s="5">
-        <v>14</v>
-      </c>
-      <c r="V3" s="5">
-        <v>15</v>
-      </c>
-      <c r="W3" s="5">
-        <v>16</v>
-      </c>
-      <c r="X3" s="5">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="5">
-        <v>22</v>
-      </c>
-      <c r="AD3" s="5">
-        <v>23</v>
-      </c>
-      <c r="AE3" s="5">
-        <v>24</v>
-      </c>
-      <c r="AF3" s="5">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="5">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:36" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -4635,83 +4797,83 @@
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="AD5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="11" t="s">
+      <c r="AE5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="AG5" s="26" t="s">
         <v>53</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
@@ -4719,14 +4881,14 @@
         <f>ROW()-ROW($B$5)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5">
-        <v>3</v>
+      <c r="F6" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
@@ -4811,14 +4973,14 @@
         <f t="shared" ref="B7:B47" si="1">ROW()-ROW($B$5)</f>
         <v>2</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5">
-        <v>4</v>
+      <c r="F7" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
@@ -4881,14 +5043,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5">
-        <v>5</v>
+      <c r="F8" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>6</v>
@@ -4951,17 +5113,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
+      <c r="D9" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5">
-        <v>8</v>
+      <c r="F9" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>0</v>
@@ -5051,14 +5213,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>2</v>
+      <c r="D10" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5">
-        <v>6</v>
+      <c r="F10" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>7</v>
@@ -5133,17 +5295,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>2</v>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5">
-        <v>8</v>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>0</v>
@@ -5233,14 +5395,14 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>3</v>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5">
-        <v>5</v>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
@@ -5325,17 +5487,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D13" s="5">
-        <v>3</v>
+      <c r="D13" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5">
-        <v>8</v>
+      <c r="F13" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>0</v>
@@ -5417,14 +5579,14 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D14" s="5">
-        <v>3</v>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="5">
-        <v>11</v>
+      <c r="F14" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
@@ -5511,14 +5673,14 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D15" s="5">
-        <v>4</v>
+      <c r="D15" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
-        <v>5</v>
+      <c r="F15" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>6</v>
@@ -5579,14 +5741,14 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D16" s="5">
-        <v>4</v>
+      <c r="D16" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5">
-        <v>7</v>
+      <c r="F16" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
@@ -5645,17 +5807,17 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D17" s="5">
-        <v>4</v>
+      <c r="D17" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="5">
-        <v>8</v>
+      <c r="F17" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>0</v>
@@ -5713,14 +5875,14 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D18" s="5">
-        <v>4</v>
+      <c r="D18" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5">
-        <v>10</v>
+      <c r="F18" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>11</v>
@@ -5777,14 +5939,14 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D19" s="5">
-        <v>5</v>
+      <c r="D19" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5">
-        <v>1</v>
+      <c r="F19" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2</v>
@@ -5831,14 +5993,14 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D20" s="5">
-        <v>5</v>
+      <c r="D20" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="5">
-        <v>7</v>
+      <c r="F20" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
@@ -5897,17 +6059,17 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D21" s="5">
-        <v>5</v>
+      <c r="D21" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="5">
-        <v>8</v>
+      <c r="F21" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>0</v>
@@ -5969,14 +6131,14 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D22" s="5">
-        <v>6</v>
+      <c r="D22" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="5">
-        <v>1</v>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -6033,14 +6195,14 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D23" s="5">
-        <v>6</v>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="5">
-        <v>2</v>
+      <c r="F23" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -6109,14 +6271,14 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D24" s="5">
-        <v>6</v>
+      <c r="D24" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="5">
-        <v>3</v>
+      <c r="F24" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -6209,14 +6371,14 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D25" s="5">
-        <v>6</v>
+      <c r="D25" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="5">
-        <v>4</v>
+      <c r="F25" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>5</v>
@@ -6299,14 +6461,14 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D26" s="5">
-        <v>6</v>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="5">
-        <v>5</v>
+      <c r="F26" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>6</v>
@@ -6395,14 +6557,14 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D27" s="5">
-        <v>6</v>
+      <c r="D27" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="5">
-        <v>7</v>
+      <c r="F27" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
@@ -6463,17 +6625,17 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D28" s="5">
-        <v>6</v>
+      <c r="D28" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="5">
-        <v>8</v>
+      <c r="F28" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>0</v>
@@ -6563,14 +6725,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D29" s="5">
-        <v>6</v>
+      <c r="D29" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="5">
-        <v>11</v>
+      <c r="F29" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
@@ -6663,14 +6825,14 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D30" s="5">
-        <v>7</v>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="5">
-        <v>1</v>
+      <c r="F30" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>2</v>
@@ -6751,14 +6913,14 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D31" s="5">
-        <v>7</v>
+      <c r="D31" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="5">
-        <v>7</v>
+      <c r="F31" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>8</v>
@@ -6815,17 +6977,17 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D32" s="5">
-        <v>7</v>
+      <c r="D32" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="5">
-        <v>8</v>
+      <c r="F32" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>0</v>
@@ -6879,14 +7041,14 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D33" s="5">
-        <v>8</v>
+      <c r="D33" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="5">
-        <v>3</v>
+      <c r="F33" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
@@ -6979,14 +7141,14 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D34" s="5">
-        <v>8</v>
+      <c r="D34" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="5">
-        <v>4</v>
+      <c r="F34" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>5</v>
@@ -7069,14 +7231,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D35" s="5">
-        <v>8</v>
+      <c r="D35" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="5">
-        <v>5</v>
+      <c r="F35" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>6</v>
@@ -7143,14 +7305,14 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D36" s="5">
-        <v>8</v>
+      <c r="D36" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="5">
-        <v>6</v>
+      <c r="F36" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>7</v>
@@ -7235,14 +7397,14 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D37" s="5">
-        <v>8</v>
+      <c r="D37" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="5">
-        <v>7</v>
+      <c r="F37" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>8</v>
@@ -7303,17 +7465,17 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D38" s="5">
-        <v>8</v>
+      <c r="D38" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="5">
-        <v>8</v>
+      <c r="F38" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>0</v>
@@ -7403,14 +7565,14 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D39" s="5">
-        <v>8</v>
+      <c r="D39" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="5">
-        <v>9</v>
+      <c r="F39" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>10</v>
@@ -7477,14 +7639,14 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D40" s="5">
-        <v>8</v>
+      <c r="D40" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="5">
-        <v>10</v>
+      <c r="F40" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>11</v>
@@ -7551,14 +7713,14 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D41" s="5">
-        <v>8</v>
+      <c r="D41" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="5">
-        <v>11</v>
+      <c r="F41" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>12</v>
@@ -7651,17 +7813,17 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D42" s="5">
-        <v>9</v>
+      <c r="D42" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="5">
-        <v>8</v>
+      <c r="F42" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>0</v>
@@ -7741,14 +7903,14 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D43" s="5">
-        <v>10</v>
+      <c r="D43" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="5">
-        <v>7</v>
+      <c r="F43" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -7819,17 +7981,17 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="D44" s="5">
-        <v>10</v>
+      <c r="D44" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="5">
-        <v>8</v>
+      <c r="F44" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>0</v>
@@ -7883,14 +8045,14 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D45" s="5">
-        <v>11</v>
+      <c r="D45" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="5">
-        <v>6</v>
+      <c r="F45" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>7</v>
@@ -7949,14 +8111,14 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D46" s="5">
-        <v>11</v>
+      <c r="D46" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="5">
-        <v>7</v>
+      <c r="F46" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
@@ -8010,17 +8172,17 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D47" s="5">
-        <v>11</v>
+      <c r="D47" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="5">
-        <v>8</v>
+      <c r="F47" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>0</v>
@@ -8217,6 +8379,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="93" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/src/main/resources/M-T_F Matrisi.xlsx
+++ b/src/main/resources/M-T_F Matrisi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\material\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109E32AA-190D-4932-B64F-1C3C048C02FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AEFFF6-1D0D-4085-8F7E-D60BA580BF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC06E057-9EE0-4AC9-889D-A81E10C62B95}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="68">
   <si>
     <t>X</t>
   </si>
@@ -240,150 +240,6 @@
   </si>
   <si>
     <t>Deniz Organizma</t>
-  </si>
-  <si>
-    <t>M01</t>
-  </si>
-  <si>
-    <t>M02</t>
-  </si>
-  <si>
-    <t>M03</t>
-  </si>
-  <si>
-    <t>M04</t>
-  </si>
-  <si>
-    <t>M05</t>
-  </si>
-  <si>
-    <t>M06</t>
-  </si>
-  <si>
-    <t>M07</t>
-  </si>
-  <si>
-    <t>M08</t>
-  </si>
-  <si>
-    <t>M09</t>
-  </si>
-  <si>
-    <t>M10</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>T03</t>
-  </si>
-  <si>
-    <t>T04</t>
-  </si>
-  <si>
-    <t>T05</t>
-  </si>
-  <si>
-    <t>T08</t>
-  </si>
-  <si>
-    <t>T06</t>
-  </si>
-  <si>
-    <t>T11</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>T01</t>
-  </si>
-  <si>
-    <t>T07</t>
-  </si>
-  <si>
-    <t>T02</t>
-  </si>
-  <si>
-    <t>T09</t>
-  </si>
-  <si>
-    <t>F01</t>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>F06</t>
-  </si>
-  <si>
-    <t>F07</t>
-  </si>
-  <si>
-    <t>F08</t>
-  </si>
-  <si>
-    <t>F09</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>F16</t>
-  </si>
-  <si>
-    <t>F17</t>
-  </si>
-  <si>
-    <t>F18</t>
-  </si>
-  <si>
-    <t>F19</t>
-  </si>
-  <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>F21</t>
-  </si>
-  <si>
-    <t>F22</t>
-  </si>
-  <si>
-    <t>F23</t>
-  </si>
-  <si>
-    <t>F24</t>
-  </si>
-  <si>
-    <t>F25</t>
-  </si>
-  <si>
-    <t>F26</t>
   </si>
   <si>
     <t>Mekanik İşleme NC</t>
@@ -4643,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C914C723-B307-4D6C-93AF-3FF0451A6A67}">
   <dimension ref="B2:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4671,83 +4527,83 @@
       <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>114</v>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>6</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7</v>
+      </c>
+      <c r="O3" s="5">
+        <v>8</v>
+      </c>
+      <c r="P3" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>10</v>
+      </c>
+      <c r="R3" s="5">
+        <v>11</v>
+      </c>
+      <c r="S3" s="5">
+        <v>12</v>
+      </c>
+      <c r="T3" s="5">
+        <v>13</v>
+      </c>
+      <c r="U3" s="5">
+        <v>14</v>
+      </c>
+      <c r="V3" s="5">
+        <v>15</v>
+      </c>
+      <c r="W3" s="5">
+        <v>16</v>
+      </c>
+      <c r="X3" s="5">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:36" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4881,14 +4737,14 @@
         <f>ROW()-ROW($B$5)</f>
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>67</v>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>78</v>
+      <c r="F6" s="5">
+        <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
@@ -4973,14 +4829,14 @@
         <f t="shared" ref="B7:B47" si="1">ROW()-ROW($B$5)</f>
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
+      <c r="D7" s="5">
+        <v>1</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>79</v>
+      <c r="F7" s="5">
+        <v>4</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
@@ -5043,14 +4899,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>67</v>
+      <c r="D8" s="5">
+        <v>1</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>80</v>
+      <c r="F8" s="5">
+        <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>6</v>
@@ -5113,17 +4969,17 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>67</v>
+      <c r="D9" s="5">
+        <v>1</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>81</v>
+      <c r="F9" s="5">
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>0</v>
@@ -5213,14 +5069,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
+      <c r="D10" s="5">
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>82</v>
+      <c r="F10" s="5">
+        <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>7</v>
@@ -5295,17 +5151,17 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
+      <c r="D11" s="5">
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>81</v>
+      <c r="F11" s="5">
+        <v>8</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>0</v>
@@ -5395,14 +5251,14 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>69</v>
+      <c r="D12" s="5">
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>80</v>
+      <c r="F12" s="5">
+        <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
@@ -5487,17 +5343,17 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>69</v>
+      <c r="D13" s="5">
+        <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>81</v>
+      <c r="F13" s="5">
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>0</v>
@@ -5579,14 +5435,14 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>69</v>
+      <c r="D14" s="5">
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>83</v>
+      <c r="F14" s="5">
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
@@ -5673,14 +5529,14 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>70</v>
+      <c r="D15" s="5">
+        <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>80</v>
+      <c r="F15" s="5">
+        <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>6</v>
@@ -5741,14 +5597,14 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>70</v>
+      <c r="D16" s="5">
+        <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>86</v>
+      <c r="F16" s="5">
+        <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
@@ -5807,17 +5663,17 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>70</v>
+      <c r="D17" s="5">
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>81</v>
+      <c r="F17" s="5">
+        <v>8</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>0</v>
@@ -5875,14 +5731,14 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>70</v>
+      <c r="D18" s="5">
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>84</v>
+      <c r="F18" s="5">
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>11</v>
@@ -5939,14 +5795,14 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>71</v>
+      <c r="D19" s="5">
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>85</v>
+      <c r="F19" s="5">
+        <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2</v>
@@ -5993,14 +5849,14 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>71</v>
+      <c r="D20" s="5">
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>86</v>
+      <c r="F20" s="5">
+        <v>7</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
@@ -6059,17 +5915,17 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>71</v>
+      <c r="D21" s="5">
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>81</v>
+      <c r="F21" s="5">
+        <v>8</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>0</v>
@@ -6131,14 +5987,14 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>72</v>
+      <c r="D22" s="5">
+        <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>85</v>
+      <c r="F22" s="5">
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -6195,14 +6051,14 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>72</v>
+      <c r="D23" s="5">
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>87</v>
+      <c r="F23" s="5">
+        <v>2</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -6271,14 +6127,14 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>72</v>
+      <c r="D24" s="5">
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>78</v>
+      <c r="F24" s="5">
+        <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -6371,14 +6227,14 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>72</v>
+      <c r="D25" s="5">
+        <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>79</v>
+      <c r="F25" s="5">
+        <v>4</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>5</v>
@@ -6461,14 +6317,14 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>72</v>
+      <c r="D26" s="5">
+        <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>80</v>
+      <c r="F26" s="5">
+        <v>5</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>6</v>
@@ -6557,14 +6413,14 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>72</v>
+      <c r="D27" s="5">
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>86</v>
+      <c r="F27" s="5">
+        <v>7</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
@@ -6625,17 +6481,17 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>72</v>
+      <c r="D28" s="5">
+        <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>81</v>
+      <c r="F28" s="5">
+        <v>8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>0</v>
@@ -6725,14 +6581,14 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>72</v>
+      <c r="D29" s="5">
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>83</v>
+      <c r="F29" s="5">
+        <v>11</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
@@ -6825,14 +6681,14 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>73</v>
+      <c r="D30" s="5">
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>85</v>
+      <c r="F30" s="5">
+        <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>2</v>
@@ -6913,14 +6769,14 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>73</v>
+      <c r="D31" s="5">
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>86</v>
+      <c r="F31" s="5">
+        <v>7</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>8</v>
@@ -6977,14 +6833,14 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>73</v>
+      <c r="D32" s="5">
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>81</v>
+      <c r="F32" s="5">
+        <v>8</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>9</v>
@@ -7041,14 +6897,14 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>74</v>
+      <c r="D33" s="5">
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>78</v>
+      <c r="F33" s="5">
+        <v>3</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
@@ -7141,14 +6997,14 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>74</v>
+      <c r="D34" s="5">
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>79</v>
+      <c r="F34" s="5">
+        <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>5</v>
@@ -7231,14 +7087,14 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>74</v>
+      <c r="D35" s="5">
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>80</v>
+      <c r="F35" s="5">
+        <v>5</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>6</v>
@@ -7305,14 +7161,14 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>74</v>
+      <c r="D36" s="5">
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>82</v>
+      <c r="F36" s="5">
+        <v>6</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>7</v>
@@ -7397,14 +7253,14 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>74</v>
+      <c r="D37" s="5">
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>86</v>
+      <c r="F37" s="5">
+        <v>7</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>8</v>
@@ -7465,17 +7321,17 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>74</v>
+      <c r="D38" s="5">
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>81</v>
+      <c r="F38" s="5">
+        <v>8</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>0</v>
@@ -7565,14 +7421,14 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>74</v>
+      <c r="D39" s="5">
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>88</v>
+      <c r="F39" s="5">
+        <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>10</v>
@@ -7639,14 +7495,14 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>74</v>
+      <c r="D40" s="5">
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>84</v>
+      <c r="F40" s="5">
+        <v>10</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>11</v>
@@ -7713,14 +7569,14 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>74</v>
+      <c r="D41" s="5">
+        <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>83</v>
+      <c r="F41" s="5">
+        <v>11</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>12</v>
@@ -7813,17 +7669,17 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>75</v>
+      <c r="D42" s="5">
+        <v>9</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>81</v>
+      <c r="F42" s="5">
+        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>0</v>
@@ -7903,14 +7759,14 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>76</v>
+      <c r="D43" s="5">
+        <v>10</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>86</v>
+      <c r="F43" s="5">
+        <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
@@ -7981,17 +7837,17 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>76</v>
+      <c r="D44" s="5">
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>81</v>
+      <c r="F44" s="5">
+        <v>8</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>0</v>
@@ -8045,14 +7901,14 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>77</v>
+      <c r="D45" s="5">
+        <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>82</v>
+      <c r="F45" s="5">
+        <v>6</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>7</v>
@@ -8111,14 +7967,14 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>77</v>
+      <c r="D46" s="5">
+        <v>11</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>86</v>
+      <c r="F46" s="5">
+        <v>7</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
@@ -8172,17 +8028,17 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>77</v>
+      <c r="D47" s="5">
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>81</v>
+      <c r="F47" s="5">
+        <v>8</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>0</v>
